--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/用户优先级打分表_fym.xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/用户优先级打分表_fym.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B17D8-3B17-4403-8992-3E791CE6B3AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E1352-7065-4712-B919-710DD2C70EEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -872,8 +872,8 @@
         <v>1.7301038062283738E-2</v>
       </c>
       <c r="J3" s="9">
-        <f>E3/(G3+I3)*0.4</f>
-        <v>0.51156031468531471</v>
+        <f>E3/(G3+I3)*1</f>
+        <v>1.2789007867132867</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -909,8 +909,8 @@
         <v>2.0761245674740483E-2</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J61" si="4">E4/(G4+I4)*0.4</f>
-        <v>0.4263002622377623</v>
+        <f t="shared" ref="J4:J61" si="4">E4/(G4+I4)*1</f>
+        <v>1.0657506555944056</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="4"/>
-        <v>0.4219054141734554</v>
+        <v>1.0547635354336384</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" si="4"/>
-        <v>0.4219054141734554</v>
+        <v>1.0547635354336384</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="4"/>
-        <v>0.57237517727028209</v>
+        <v>1.4309379431757052</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" si="4"/>
-        <v>0.4219054141734554</v>
+        <v>1.0547635354336384</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="4"/>
-        <v>0.46637977407208181</v>
+        <v>1.1659494351802044</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="4"/>
-        <v>0.2389954443896353</v>
+        <v>0.59748861097408823</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="4"/>
-        <v>6.3597241918920244E-2</v>
+        <v>0.15899310479730061</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="4"/>
-        <v>0.48757885471172185</v>
+        <v>1.2189471367793046</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="4"/>
-        <v>0.25438896767568098</v>
+        <v>0.63597241918920244</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="4"/>
-        <v>0.51156031468531471</v>
+        <v>1.2789007867132867</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="4"/>
-        <v>0.48757885471172185</v>
+        <v>1.2189471367793046</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="4"/>
-        <v>0.25438896767568098</v>
+        <v>0.63597241918920244</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="4"/>
-        <v>0.51803576170664778</v>
+        <v>1.2950894042666194</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="4"/>
-        <v>0.48757885471172185</v>
+        <v>1.2189471367793046</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="4"/>
-        <v>0.57237517727028209</v>
+        <v>1.4309379431757052</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="4"/>
-        <v>0.2652534965034965</v>
+        <v>0.66313374125874125</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="4"/>
-        <v>0.40278253215316151</v>
+        <v>1.0069563303829037</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="4"/>
-        <v>0.2331898870360409</v>
+        <v>0.58297471759010222</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="4"/>
-        <v>0.20841346153846155</v>
+        <v>0.52103365384615385</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="4"/>
-        <v>0.5533633033633033</v>
+        <v>1.3834082584082583</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="4"/>
-        <v>0.45712620712620711</v>
+        <v>1.1428155178155177</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="4"/>
-        <v>0.32209353146853148</v>
+        <v>0.80523382867132864</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="4"/>
-        <v>0.37893356643356646</v>
+        <v>0.94733391608391615</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="4"/>
-        <v>0.14210008741258742</v>
+        <v>0.35525021853146854</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="4"/>
-        <v>0.2331898870360409</v>
+        <v>0.58297471759010222</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="4"/>
-        <v>0.36038437087388137</v>
+        <v>0.90096092718470333</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="4"/>
-        <v>0.34253881711508832</v>
+        <v>0.85634704278772078</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="4"/>
-        <v>0.16959264511712066</v>
+        <v>0.42398161279280161</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="4"/>
-        <v>0.47366695804195813</v>
+        <v>1.1841673951048952</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="4"/>
-        <v>0.54621054621054632</v>
+        <v>1.3655263655263656</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="4"/>
-        <v>0.54621054621054632</v>
+        <v>1.3655263655263656</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="4"/>
-        <v>0.47366695804195813</v>
+        <v>1.1841673951048952</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="4"/>
-        <v>0.4263002622377623</v>
+        <v>1.0657506555944056</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" si="4"/>
-        <v>0.42398161279280161</v>
+        <v>1.059954031982004</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" si="4"/>
-        <v>0.2331898870360409</v>
+        <v>0.58297471759010222</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" si="4"/>
-        <v>0.32617066477825973</v>
+        <v>0.81542666194564928</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" si="4"/>
-        <v>0.32617066477825973</v>
+        <v>0.81542666194564928</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" si="4"/>
-        <v>0.36038437087388137</v>
+        <v>0.90096092718470333</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" si="4"/>
-        <v>6.3597241918920244E-2</v>
+        <v>0.15899310479730061</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" si="4"/>
-        <v>9.5932548464194051E-2</v>
+        <v>0.23983137116048511</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" si="4"/>
-        <v>0.18839634941329858</v>
+        <v>0.47099087353324642</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="J55" s="9">
         <f t="shared" si="4"/>
-        <v>0.13701552684603532</v>
+        <v>0.34253881711508827</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="J56" s="9">
         <f t="shared" si="4"/>
-        <v>0.16959264511712066</v>
+        <v>0.42398161279280161</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="J57" s="9">
         <f t="shared" si="4"/>
-        <v>0.16959264511712066</v>
+        <v>0.42398161279280161</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="J58" s="9">
         <f t="shared" si="4"/>
-        <v>6.3597241918920244E-2</v>
+        <v>0.15899310479730061</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" si="4"/>
-        <v>5.1380822567263257E-2</v>
+        <v>0.12845205641815813</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" si="4"/>
-        <v>0.2331898870360409</v>
+        <v>0.58297471759010222</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="J61" s="9">
         <f t="shared" si="4"/>
-        <v>0.30041580041580046</v>
+        <v>0.75103950103950112</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
